--- a/template.xlsx
+++ b/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuagriffin/repos/grafana/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuagriffin/repos/grafana-plugins/msupply-dashboard-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4554302-BBF0-5649-9DA3-FA358F1CF51C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46E8799-B5DB-9849-BD8C-C801A70E9548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51840" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,8 +124,8 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color rgb="FFFF952C"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -176,9 +176,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -189,6 +186,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -202,7 +202,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="11">
     <dxf>
       <font>
         <b/>
@@ -284,229 +284,6 @@
         <patternFill>
           <fgColor rgb="FFFFC0A3"/>
           <bgColor rgb="FFFFC0A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFFC0A3"/>
-          <bgColor rgb="FFFFC0A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF873C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFFC0A3"/>
-          <bgColor rgb="FFFFC0A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF873C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFFC0A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF873C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF873C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF873C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF873C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -593,11 +370,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Travel Expense Tracker" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Travel Expense Tracker" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="27"/>
-      <tableStyleElement type="headerRow" dxfId="26"/>
-      <tableStyleElement type="totalRow" dxfId="25"/>
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -835,34 +612,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="75.83203125" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="75.83203125" style="2"/>
+    <col min="1" max="16384" width="75.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="2" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:1" ht="79" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="3" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:1" s="2" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="4" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:1" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="A5:ZZ99">
+  <conditionalFormatting sqref="A5:ZZ9999">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>AND(NOT(MOD(ROW(),2)),NOT(ISBLANK($A5)))</formula>
+      <formula>AND(NOT(MOD(ROW(),2)),NOT(ISBLANK(A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:ZX4">

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuagriffin/repos/grafana-plugins/msupply-dashboard-app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m2/go/src/github.com/grafana/grafana/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46E8799-B5DB-9849-BD8C-C801A70E9548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E289FD17-F657-2048-AE1B-773DD443C21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51840" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="templateSheet" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="4"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -148,7 +148,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -171,8 +171,9 @@
     <xf numFmtId="7" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -185,14 +186,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
+    <cellStyle name="Comma" xfId="8" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Currency" xfId="7" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Date" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -202,7 +213,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -227,63 +238,7 @@
       <fill>
         <patternFill>
           <fgColor rgb="FFFFC0A3"/>
-          <bgColor rgb="FFFFC0A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFFC0A3"/>
-          <bgColor rgb="FFFFC0A3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF873C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF873C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFFC0A3"/>
-          <bgColor rgb="FFFFC0A3"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -370,11 +325,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Travel Expense Tracker" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Travel Expense Tracker" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="10"/>
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -604,46 +559,60 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="75.83203125" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="75.7109375" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="75.83203125" style="1"/>
+    <col min="1" max="1" width="46" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="75.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:1" ht="79" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="79" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
-    <row r="4" spans="1:1" s="2" customFormat="1" ht="77" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="3" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" s="3" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A5:ZZ9999">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>AND(NOT(MOD(ROW(),2)),NOT(ISBLANK(A5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:ZX4">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISBLANK(A$4))</formula>
     </cfRule>
   </conditionalFormatting>
